--- a/有好货页面/id_1908043/需求表格.xlsx
+++ b/有好货页面/id_1908043/需求表格.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27120" windowHeight="13000"/>
+    <workbookView windowWidth="27100" windowHeight="13000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -99,9 +99,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -113,6 +113,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -121,68 +137,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -196,52 +166,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -250,8 +174,84 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -278,13 +278,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -296,163 +446,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -469,8 +469,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -478,8 +478,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -499,22 +514,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -529,21 +544,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -566,148 +566,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1037,7 +1037,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelRow="7" outlineLevelCol="7"/>
@@ -1077,7 +1077,7 @@
       <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
     </row>

--- a/有好货页面/id_1908043/需求表格.xlsx
+++ b/有好货页面/id_1908043/需求表格.xlsx
@@ -99,10 +99,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -110,6 +110,13 @@
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -121,43 +128,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -166,6 +136,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -176,9 +184,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -190,9 +198,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -200,6 +207,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -207,35 +222,19 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -244,14 +243,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -278,181 +278,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -475,11 +475,67 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -501,159 +557,103 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -662,52 +662,52 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1037,7 +1037,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelRow="7" outlineLevelCol="7"/>
@@ -1085,10 +1085,10 @@
       <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D3" t="s">

--- a/有好货页面/id_1908043/需求表格.xlsx
+++ b/有好货页面/id_1908043/需求表格.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27100" windowHeight="13000"/>
+    <workbookView windowWidth="27140" windowHeight="13000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -99,10 +99,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -115,6 +115,66 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -128,16 +188,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -146,29 +237,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -182,76 +250,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -284,31 +284,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -320,19 +398,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -344,25 +422,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -374,85 +446,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -463,71 +463,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -563,157 +498,223 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1037,7 +1038,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelRow="7" outlineLevelCol="7"/>
@@ -1074,7 +1075,7 @@
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -1102,16 +1103,16 @@
       <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E4" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="3" t="s">
         <v>18</v>
       </c>
       <c r="G4" t="s">
@@ -1125,7 +1126,7 @@
       <c r="A5" t="s">
         <v>21</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1133,7 +1134,7 @@
       <c r="A6" t="s">
         <v>23</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1141,7 +1142,7 @@
       <c r="A7" t="s">
         <v>24</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1149,7 +1150,7 @@
       <c r="A8" t="s">
         <v>25</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>14</v>
       </c>
     </row>

--- a/有好货页面/id_1908043/需求表格.xlsx
+++ b/有好货页面/id_1908043/需求表格.xlsx
@@ -99,8 +99,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -120,11 +120,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -136,6 +150,68 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
@@ -143,30 +219,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -174,9 +228,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -188,70 +242,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -284,19 +284,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -308,151 +398,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -466,11 +466,67 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -493,23 +549,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -517,204 +558,162 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1038,7 +1037,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelRow="7" outlineLevelCol="7"/>
@@ -1055,10 +1054,10 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
@@ -1092,7 +1091,7 @@
       <c r="C3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1103,16 +1102,16 @@
       <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G4" t="s">
